--- a/images.xlsx
+++ b/images.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>SKW2907_main%7D.jpeg</t>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Ảnh</t>
+  </si>
+  <si>
+    <t>SKW2907</t>
+  </si>
+  <si>
+    <t>SKW2972</t>
+  </si>
+  <si>
+    <t>SKW2973</t>
   </si>
 </sst>
 </file>
@@ -78,13 +90,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -102,7 +114,83 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="0"/>
+          <a:off x="2047875" y="1143000"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="SKW2972_main%7D.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="2286000"/>
+          <a:ext cx="1143000" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="SKW2973_main%7D.jpeg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="3429000"/>
           <a:ext cx="1143000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -400,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,9 +498,27 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="90" customHeight="1">
+    <row r="1" spans="1:2" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="90" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="90" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="90" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/images.xlsx
+++ b/images.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tên</t>
   </si>
   <si>
-    <t>Ảnh</t>
+    <t>Ảnh main</t>
+  </si>
+  <si>
+    <t>Ảnh 1</t>
+  </si>
+  <si>
+    <t>Ảnh 2</t>
   </si>
   <si>
     <t>SKW2907</t>
@@ -90,13 +96,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -114,7 +120,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="1143000"/>
+          <a:off x="2047875" y="4572000"/>
           <a:ext cx="1143000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -128,13 +134,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -152,7 +158,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="2286000"/>
+          <a:off x="2047875" y="4572000"/>
           <a:ext cx="1143000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -166,13 +172,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -190,7 +196,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="3429000"/>
+          <a:off x="2047875" y="4572000"/>
           <a:ext cx="1143000" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -488,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -498,27 +504,23 @@
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="90" customHeight="1">
+    <row r="1" spans="1:4" ht="90" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="90" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="90" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="90" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+    <row r="5" spans="1:4" ht="90" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
